--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.75977</v>
+        <v>2.250039333333334</v>
       </c>
       <c r="H2">
-        <v>8.279310000000001</v>
+        <v>6.750118000000001</v>
       </c>
       <c r="I2">
-        <v>0.06698501710740076</v>
+        <v>0.05266340474459803</v>
       </c>
       <c r="J2">
-        <v>0.06698501710740076</v>
+        <v>0.05266340474459803</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.837459</v>
+        <v>0.9956583333333334</v>
       </c>
       <c r="N2">
-        <v>2.512377</v>
+        <v>2.986975</v>
       </c>
       <c r="O2">
-        <v>0.1861007731134217</v>
+        <v>0.1535710477437721</v>
       </c>
       <c r="P2">
-        <v>0.1861007731134217</v>
+        <v>0.153571047743772</v>
       </c>
       <c r="Q2">
-        <v>2.31119422443</v>
+        <v>2.240270412561112</v>
       </c>
       <c r="R2">
-        <v>20.80074801987</v>
+        <v>20.16243371305</v>
       </c>
       <c r="S2">
-        <v>0.01246596347070306</v>
+        <v>0.008087574244382256</v>
       </c>
       <c r="T2">
-        <v>0.01246596347070306</v>
+        <v>0.008087574244382256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.75977</v>
+        <v>2.250039333333334</v>
       </c>
       <c r="H3">
-        <v>8.279310000000001</v>
+        <v>6.750118000000001</v>
       </c>
       <c r="I3">
-        <v>0.06698501710740076</v>
+        <v>0.05266340474459803</v>
       </c>
       <c r="J3">
-        <v>0.06698501710740076</v>
+        <v>0.05266340474459803</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.593532</v>
       </c>
       <c r="O3">
-        <v>0.4143329721752205</v>
+        <v>0.2875834480798523</v>
       </c>
       <c r="P3">
-        <v>0.4143329721752204</v>
+        <v>0.2875834480798522</v>
       </c>
       <c r="Q3">
-        <v>5.145620602546667</v>
+        <v>4.195222337419556</v>
       </c>
       <c r="R3">
-        <v>46.31058542292</v>
+        <v>37.757001036776</v>
       </c>
       <c r="S3">
-        <v>0.02775410122931735</v>
+        <v>0.01514512352407636</v>
       </c>
       <c r="T3">
-        <v>0.02775410122931734</v>
+        <v>0.01514512352407635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.75977</v>
+        <v>2.250039333333334</v>
       </c>
       <c r="H4">
-        <v>8.279310000000001</v>
+        <v>6.750118000000001</v>
       </c>
       <c r="I4">
-        <v>0.06698501710740076</v>
+        <v>0.05266340474459803</v>
       </c>
       <c r="J4">
-        <v>0.06698501710740076</v>
+        <v>0.05266340474459803</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.320881333333333</v>
+        <v>2.910118</v>
       </c>
       <c r="N4">
-        <v>3.962644</v>
+        <v>8.730354</v>
       </c>
       <c r="O4">
-        <v>0.2935272500796106</v>
+        <v>0.4488586650219809</v>
       </c>
       <c r="P4">
-        <v>0.2935272500796106</v>
+        <v>0.4488586650219808</v>
       </c>
       <c r="Q4">
-        <v>3.645328677293334</v>
+        <v>6.547879964641334</v>
       </c>
       <c r="R4">
-        <v>32.80795809564</v>
+        <v>58.930919681772</v>
       </c>
       <c r="S4">
-        <v>0.01966192786807102</v>
+        <v>0.02363842554917253</v>
       </c>
       <c r="T4">
-        <v>0.01966192786807101</v>
+        <v>0.02363842554917252</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.75977</v>
+        <v>2.250039333333334</v>
       </c>
       <c r="H5">
-        <v>8.279310000000001</v>
+        <v>6.750118000000001</v>
       </c>
       <c r="I5">
-        <v>0.06698501710740076</v>
+        <v>0.05266340474459803</v>
       </c>
       <c r="J5">
-        <v>0.06698501710740076</v>
+        <v>0.05266340474459803</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4771786666666666</v>
+        <v>0.7130856666666667</v>
       </c>
       <c r="N5">
-        <v>1.431536</v>
+        <v>2.139257</v>
       </c>
       <c r="O5">
-        <v>0.1060390046317472</v>
+        <v>0.1099868391543949</v>
       </c>
       <c r="P5">
-        <v>0.1060390046317472</v>
+        <v>0.1099868391543948</v>
       </c>
       <c r="Q5">
-        <v>1.316903368906667</v>
+        <v>1.604470798036223</v>
       </c>
       <c r="R5">
-        <v>11.85213032016</v>
+        <v>14.440237182326</v>
       </c>
       <c r="S5">
-        <v>0.007103024539309338</v>
+        <v>0.0057922814269669</v>
       </c>
       <c r="T5">
-        <v>0.007103024539309337</v>
+        <v>0.005792281426966897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>56.99063100000001</v>
       </c>
       <c r="I6">
-        <v>0.4610913702345443</v>
+        <v>0.4446323259834918</v>
       </c>
       <c r="J6">
-        <v>0.4610913702345442</v>
+        <v>0.4446323259834918</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.837459</v>
+        <v>0.9956583333333334</v>
       </c>
       <c r="N6">
-        <v>2.512377</v>
+        <v>2.986975</v>
       </c>
       <c r="O6">
-        <v>0.1861007731134217</v>
+        <v>0.1535710477437721</v>
       </c>
       <c r="P6">
-        <v>0.1861007731134217</v>
+        <v>0.153571047743772</v>
       </c>
       <c r="Q6">
-        <v>15.909105615543</v>
+        <v>18.91439889235834</v>
       </c>
       <c r="R6">
-        <v>143.181950539887</v>
+        <v>170.229590031225</v>
       </c>
       <c r="S6">
-        <v>0.08580946047657564</v>
+        <v>0.06828265216203525</v>
       </c>
       <c r="T6">
-        <v>0.08580946047657563</v>
+        <v>0.06828265216203523</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>56.99063100000001</v>
       </c>
       <c r="I7">
-        <v>0.4610913702345443</v>
+        <v>0.4446323259834918</v>
       </c>
       <c r="J7">
-        <v>0.4610913702345442</v>
+        <v>0.4446323259834918</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>5.593532</v>
       </c>
       <c r="O7">
-        <v>0.4143329721752205</v>
+        <v>0.2875834480798523</v>
       </c>
       <c r="P7">
-        <v>0.4143329721752204</v>
+        <v>0.2875834480798522</v>
       </c>
       <c r="Q7">
         <v>35.41987979985467</v>
@@ -883,10 +883,10 @@
         <v>318.7789181986921</v>
       </c>
       <c r="S7">
-        <v>0.1910453578736237</v>
+        <v>0.1278688974340975</v>
       </c>
       <c r="T7">
-        <v>0.1910453578736237</v>
+        <v>0.1278688974340974</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>56.99063100000001</v>
       </c>
       <c r="I8">
-        <v>0.4610913702345443</v>
+        <v>0.4446323259834918</v>
       </c>
       <c r="J8">
-        <v>0.4610913702345442</v>
+        <v>0.4446323259834918</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.320881333333333</v>
+        <v>2.910118</v>
       </c>
       <c r="N8">
-        <v>3.962644</v>
+        <v>8.730354</v>
       </c>
       <c r="O8">
-        <v>0.2935272500796106</v>
+        <v>0.4488586650219809</v>
       </c>
       <c r="P8">
-        <v>0.2935272500796106</v>
+        <v>0.4488586650219808</v>
       </c>
       <c r="Q8">
-        <v>25.09262022092934</v>
+        <v>55.28315370148601</v>
       </c>
       <c r="R8">
-        <v>225.833581988364</v>
+        <v>497.5483833133741</v>
       </c>
       <c r="S8">
-        <v>0.1353428819403854</v>
+        <v>0.1995770722665683</v>
       </c>
       <c r="T8">
-        <v>0.1353428819403854</v>
+        <v>0.1995770722665683</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>56.99063100000001</v>
       </c>
       <c r="I9">
-        <v>0.4610913702345443</v>
+        <v>0.4446323259834918</v>
       </c>
       <c r="J9">
-        <v>0.4610913702345442</v>
+        <v>0.4446323259834918</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4771786666666666</v>
+        <v>0.7130856666666667</v>
       </c>
       <c r="N9">
-        <v>1.431536</v>
+        <v>2.139257</v>
       </c>
       <c r="O9">
-        <v>0.1060390046317472</v>
+        <v>0.1099868391543949</v>
       </c>
       <c r="P9">
-        <v>0.1060390046317472</v>
+        <v>0.1099868391543948</v>
       </c>
       <c r="Q9">
-        <v>9.064904437690666</v>
+        <v>13.54640070012967</v>
       </c>
       <c r="R9">
-        <v>81.584139939216</v>
+        <v>121.917606301167</v>
       </c>
       <c r="S9">
-        <v>0.04889366994395952</v>
+        <v>0.04890370412079078</v>
       </c>
       <c r="T9">
-        <v>0.04889366994395951</v>
+        <v>0.04890370412079077</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.36848366666667</v>
+        <v>21.38027566666667</v>
       </c>
       <c r="H10">
-        <v>58.105451</v>
+        <v>64.140827</v>
       </c>
       <c r="I10">
-        <v>0.4701109910449345</v>
+        <v>0.5004170790724312</v>
       </c>
       <c r="J10">
-        <v>0.4701109910449345</v>
+        <v>0.5004170790724313</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.837459</v>
+        <v>0.9956583333333334</v>
       </c>
       <c r="N10">
-        <v>2.512377</v>
+        <v>2.986975</v>
       </c>
       <c r="O10">
-        <v>0.1861007731134217</v>
+        <v>0.1535710477437721</v>
       </c>
       <c r="P10">
-        <v>0.1861007731134217</v>
+        <v>0.153571047743772</v>
       </c>
       <c r="Q10">
-        <v>16.220310963003</v>
+        <v>21.28744963648056</v>
       </c>
       <c r="R10">
-        <v>145.982798667027</v>
+        <v>191.587046728325</v>
       </c>
       <c r="S10">
-        <v>0.08748801888257918</v>
+        <v>0.07684957514203128</v>
       </c>
       <c r="T10">
-        <v>0.08748801888257916</v>
+        <v>0.07684957514203129</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.36848366666667</v>
+        <v>21.38027566666667</v>
       </c>
       <c r="H11">
-        <v>58.105451</v>
+        <v>64.140827</v>
       </c>
       <c r="I11">
-        <v>0.4701109910449345</v>
+        <v>0.5004170790724312</v>
       </c>
       <c r="J11">
-        <v>0.4701109910449345</v>
+        <v>0.5004170790724313</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>5.593532</v>
       </c>
       <c r="O11">
-        <v>0.4143329721752205</v>
+        <v>0.2875834480798523</v>
       </c>
       <c r="P11">
-        <v>0.4143329721752204</v>
+        <v>0.2875834480798522</v>
       </c>
       <c r="Q11">
-        <v>36.11274439365911</v>
+        <v>39.86375203677377</v>
       </c>
       <c r="R11">
-        <v>325.014699542932</v>
+        <v>358.773768330964</v>
       </c>
       <c r="S11">
-        <v>0.1947824841718862</v>
+        <v>0.1439116690776979</v>
       </c>
       <c r="T11">
-        <v>0.1947824841718861</v>
+        <v>0.1439116690776978</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.36848366666667</v>
+        <v>21.38027566666667</v>
       </c>
       <c r="H12">
-        <v>58.105451</v>
+        <v>64.140827</v>
       </c>
       <c r="I12">
-        <v>0.4701109910449345</v>
+        <v>0.5004170790724312</v>
       </c>
       <c r="J12">
-        <v>0.4701109910449345</v>
+        <v>0.5004170790724313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.320881333333333</v>
+        <v>2.910118</v>
       </c>
       <c r="N12">
-        <v>3.962644</v>
+        <v>8.730354</v>
       </c>
       <c r="O12">
-        <v>0.2935272500796106</v>
+        <v>0.4488586650219809</v>
       </c>
       <c r="P12">
-        <v>0.2935272500796106</v>
+        <v>0.4488586650219808</v>
       </c>
       <c r="Q12">
-        <v>25.58346853027156</v>
+        <v>62.21912506252867</v>
       </c>
       <c r="R12">
-        <v>230.251216772444</v>
+        <v>559.972125562758</v>
       </c>
       <c r="S12">
-        <v>0.1379903864336201</v>
+        <v>0.2246165420666505</v>
       </c>
       <c r="T12">
-        <v>0.13799038643362</v>
+        <v>0.2246165420666505</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.36848366666667</v>
+        <v>21.38027566666667</v>
       </c>
       <c r="H13">
-        <v>58.105451</v>
+        <v>64.140827</v>
       </c>
       <c r="I13">
-        <v>0.4701109910449345</v>
+        <v>0.5004170790724312</v>
       </c>
       <c r="J13">
-        <v>0.4701109910449345</v>
+        <v>0.5004170790724313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4771786666666666</v>
+        <v>0.7130856666666667</v>
       </c>
       <c r="N13">
-        <v>1.431536</v>
+        <v>2.139257</v>
       </c>
       <c r="O13">
-        <v>0.1060390046317472</v>
+        <v>0.1099868391543949</v>
       </c>
       <c r="P13">
-        <v>0.1060390046317472</v>
+        <v>0.1099868391543948</v>
       </c>
       <c r="Q13">
-        <v>9.242227211415111</v>
+        <v>15.24596812728211</v>
       </c>
       <c r="R13">
-        <v>83.180044902736</v>
+        <v>137.213713145539</v>
       </c>
       <c r="S13">
-        <v>0.0498501015568491</v>
+        <v>0.05503929278605159</v>
       </c>
       <c r="T13">
-        <v>0.04985010155684909</v>
+        <v>0.05503929278605158</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.07467966666666666</v>
+        <v>0.09771999999999999</v>
       </c>
       <c r="H14">
-        <v>0.224039</v>
+        <v>0.29316</v>
       </c>
       <c r="I14">
-        <v>0.001812621613120533</v>
+        <v>0.002287190199478936</v>
       </c>
       <c r="J14">
-        <v>0.001812621613120533</v>
+        <v>0.002287190199478936</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.837459</v>
+        <v>0.9956583333333334</v>
       </c>
       <c r="N14">
-        <v>2.512377</v>
+        <v>2.986975</v>
       </c>
       <c r="O14">
-        <v>0.1861007731134217</v>
+        <v>0.1535710477437721</v>
       </c>
       <c r="P14">
-        <v>0.1861007731134217</v>
+        <v>0.153571047743772</v>
       </c>
       <c r="Q14">
-        <v>0.06254115896699999</v>
+        <v>0.09729573233333333</v>
       </c>
       <c r="R14">
-        <v>0.5628704307029999</v>
+        <v>0.875661591</v>
       </c>
       <c r="S14">
-        <v>0.0003373302835638287</v>
+        <v>0.0003512461953232672</v>
       </c>
       <c r="T14">
-        <v>0.0003373302835638287</v>
+        <v>0.0003512461953232672</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.07467966666666666</v>
+        <v>0.09771999999999999</v>
       </c>
       <c r="H15">
-        <v>0.224039</v>
+        <v>0.29316</v>
       </c>
       <c r="I15">
-        <v>0.001812621613120533</v>
+        <v>0.002287190199478936</v>
       </c>
       <c r="J15">
-        <v>0.001812621613120533</v>
+        <v>0.002287190199478936</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>5.593532</v>
       </c>
       <c r="O15">
-        <v>0.4143329721752205</v>
+        <v>0.2875834480798523</v>
       </c>
       <c r="P15">
-        <v>0.4143329721752204</v>
+        <v>0.2875834480798522</v>
       </c>
       <c r="Q15">
-        <v>0.1392410350831111</v>
+        <v>0.1821999823466667</v>
       </c>
       <c r="R15">
-        <v>1.253169315748</v>
+        <v>1.63979984112</v>
       </c>
       <c r="S15">
-        <v>0.000751028900393273</v>
+        <v>0.0006577580439805975</v>
       </c>
       <c r="T15">
-        <v>0.0007510289003932728</v>
+        <v>0.0006577580439805974</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.07467966666666666</v>
+        <v>0.09771999999999999</v>
       </c>
       <c r="H16">
-        <v>0.224039</v>
+        <v>0.29316</v>
       </c>
       <c r="I16">
-        <v>0.001812621613120533</v>
+        <v>0.002287190199478936</v>
       </c>
       <c r="J16">
-        <v>0.001812621613120533</v>
+        <v>0.002287190199478936</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.320881333333333</v>
+        <v>2.910118</v>
       </c>
       <c r="N16">
-        <v>3.962644</v>
+        <v>8.730354</v>
       </c>
       <c r="O16">
-        <v>0.2935272500796106</v>
+        <v>0.4488586650219809</v>
       </c>
       <c r="P16">
-        <v>0.2935272500796106</v>
+        <v>0.4488586650219808</v>
       </c>
       <c r="Q16">
-        <v>0.09864297767955554</v>
+        <v>0.28437673096</v>
       </c>
       <c r="R16">
-        <v>0.887786799116</v>
+        <v>2.55939057864</v>
       </c>
       <c r="S16">
-        <v>0.0005320538375341379</v>
+        <v>0.001026625139589473</v>
       </c>
       <c r="T16">
-        <v>0.0005320538375341376</v>
+        <v>0.001026625139589473</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.07467966666666666</v>
+        <v>0.09771999999999999</v>
       </c>
       <c r="H17">
-        <v>0.224039</v>
+        <v>0.29316</v>
       </c>
       <c r="I17">
-        <v>0.001812621613120533</v>
+        <v>0.002287190199478936</v>
       </c>
       <c r="J17">
-        <v>0.001812621613120533</v>
+        <v>0.002287190199478936</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4771786666666666</v>
+        <v>0.7130856666666667</v>
       </c>
       <c r="N17">
-        <v>1.431536</v>
+        <v>2.139257</v>
       </c>
       <c r="O17">
-        <v>0.1060390046317472</v>
+        <v>0.1099868391543949</v>
       </c>
       <c r="P17">
-        <v>0.1060390046317472</v>
+        <v>0.1099868391543948</v>
       </c>
       <c r="Q17">
-        <v>0.0356355437671111</v>
+        <v>0.06968273134666667</v>
       </c>
       <c r="R17">
-        <v>0.320719893904</v>
+        <v>0.62714458212</v>
       </c>
       <c r="S17">
-        <v>0.0001922085916292933</v>
+        <v>0.000251560820585598</v>
       </c>
       <c r="T17">
-        <v>0.0001922085916292933</v>
+        <v>0.000251560820585598</v>
       </c>
     </row>
   </sheetData>
